--- a/summary_stat_folder/figure3A.xlsx
+++ b/summary_stat_folder/figure3A.xlsx
@@ -14,22 +14,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t xml:space="preserve">bacteria</t>
+    <t xml:space="preserve">strain</t>
   </si>
   <si>
     <t xml:space="preserve">phage</t>
   </si>
   <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">replicates.Var1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">replicates.Freq</t>
+    <t xml:space="preserve">mean log10 PFU/mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd log10 PFU/mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_not_NA</t>
   </si>
   <si>
     <t xml:space="preserve">b52</t>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">α15</t>
   </si>
   <si>
+    <t xml:space="preserve">α17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">α15.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b52∆LPS</t>
+  </si>
+  <si>
     <t xml:space="preserve">b52∆Tsx</t>
   </si>
   <si>
-    <t xml:space="preserve">b52∆LPS</t>
-  </si>
-  <si>
     <t xml:space="preserve">b52∆Tsx_and_LPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">α17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">α15.2</t>
   </si>
 </sst>
 </file>
@@ -410,13 +410,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>9.99287898279483</v>
+        <v>9.99287898279482</v>
       </c>
       <c r="D2" t="n">
-        <v>0.266940829737256</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+        <v>0.266940829737246</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -424,19 +424,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="n">
-        <v>9.76110040956785</v>
+        <v>9.82686059560972</v>
       </c>
       <c r="D3" t="n">
-        <v>0.151237604291254</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+        <v>0.111328624652246</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -444,19 +444,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.65167130101268</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
+        <v>0.19920152107145</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -475,8 +475,8 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
+      <c r="E5" t="n">
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
@@ -484,19 +484,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>9.82686059560972</v>
+        <v>9.76110040956785</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11132862465225</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
+        <v>0.151237604291255</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -504,19 +504,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9.61219242494688</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
+        <v>0.122470672390741</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
@@ -524,19 +524,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>9.76110040956785</v>
       </c>
       <c r="D8" t="n">
-        <v>0.151237604291254</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
+        <v>0.151237604291255</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
@@ -544,10 +544,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -555,8 +555,8 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
+      <c r="E9" t="n">
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
@@ -564,19 +564,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.65167130101268</v>
+        <v>6.38612083069842</v>
       </c>
       <c r="D10" t="n">
-        <v>0.199201521071452</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
+        <v>1.24472729672886</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
@@ -584,19 +584,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>6.38612083069842</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.24472729672886</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
@@ -604,19 +604,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>9.61219242494688</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.122470672390742</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -635,8 +635,8 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
+      <c r="E13" t="n">
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
